--- a/git.xlsx
+++ b/git.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>lấy nhánh remotetolocal từ hub về local</t>
-  </si>
-  <si>
-    <t>git pull</t>
   </si>
   <si>
     <r>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>xóa branch feature-branch</t>
+  </si>
+  <si>
+    <t>git pull//keo dl ve</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,18 +772,18 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
